--- a/teste02/ex-18.10.xlsx
+++ b/teste02/ex-18.10.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.alex\Documents\@Ivan_Alex\GitHub\teste\teste02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA90404A-F483-4145-8FC4-9135B42DFD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E181DE-90DD-42F4-A0C6-5209D9585874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3286B2C0-208E-4BF3-9D58-977391D7B17F}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{3286B2C0-208E-4BF3-9D58-977391D7B17F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="no-expr-qrwi" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AH$836</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'no-expr-qrwi'!$A$1:$AH$836</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15053" uniqueCount="6331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15054" uniqueCount="6332">
   <si>
     <t xml:space="preserve">Matrícula </t>
   </si>
@@ -19030,6 +19031,9 @@
   </si>
   <si>
     <t>015-996407934</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -19406,12 +19410,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8939C3-412C-4E28-BAA2-174FC427E2BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFCCFC-2BE3-4E81-B08A-79D75992DAFA}">
   <dimension ref="A1:AH839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/teste02/ex-18.10.xlsx
+++ b/teste02/ex-18.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.alex\Documents\@Ivan_Alex\GitHub\teste\teste02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E181DE-90DD-42F4-A0C6-5209D9585874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBBE2A-8090-4A9E-8E60-A9E6FAAE214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{3286B2C0-208E-4BF3-9D58-977391D7B17F}"/>
+    <workbookView xWindow="20370" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{3286B2C0-208E-4BF3-9D58-977391D7B17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15054" uniqueCount="6332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15075" uniqueCount="6337">
   <si>
     <t xml:space="preserve">Matrícula </t>
   </si>
@@ -19033,7 +19033,22 @@
     <t>015-996407934</t>
   </si>
   <si>
-    <t>Teste</t>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>10h00</t>
+  </si>
+  <si>
+    <t>11h25</t>
+  </si>
+  <si>
+    <t>10h45</t>
+  </si>
+  <si>
+    <t>12h10</t>
   </si>
 </sst>
 </file>
@@ -19411,17 +19426,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8939C3-412C-4E28-BAA2-174FC427E2BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6331</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6336</v>
       </c>
     </row>
   </sheetData>
@@ -19439,7 +19537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B695" sqref="B695:R695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19989,9 +20087,6 @@
       <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6">
-        <v>30026</v>
-      </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -21950,10 +22045,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>50846</v>
+        <v>51558</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>581</v>
       </c>
       <c r="C26">
         <v>30024</v>
@@ -21962,88 +22057,88 @@
         <v>32</v>
       </c>
       <c r="E26" s="1">
-        <v>32442</v>
+        <v>29980</v>
       </c>
       <c r="F26">
-        <v>38367140869</v>
+        <v>1703298012</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>582</v>
       </c>
       <c r="H26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>419</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
       </c>
       <c r="M26">
-        <v>13349760</v>
+        <v>13322374</v>
       </c>
       <c r="N26">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O26" t="s">
         <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>280</v>
+        <v>583</v>
       </c>
       <c r="Q26" t="s">
-        <v>281</v>
+        <v>584</v>
       </c>
       <c r="R26" s="2">
-        <v>3994.53</v>
+        <v>3543.92</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26" s="1">
-        <v>39142</v>
+        <v>40787</v>
       </c>
       <c r="U26" t="s">
-        <v>282</v>
+        <v>585</v>
       </c>
       <c r="V26" t="s">
         <v>53</v>
       </c>
       <c r="W26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s">
-        <v>283</v>
+        <v>586</v>
       </c>
       <c r="Z26" t="s">
-        <v>284</v>
+        <v>587</v>
       </c>
       <c r="AA26" t="s">
         <v>60</v>
       </c>
       <c r="AB26">
-        <v>414105</v>
+        <v>782220</v>
       </c>
       <c r="AC26">
-        <v>414105</v>
+        <v>782220</v>
       </c>
       <c r="AD26">
-        <v>414105</v>
+        <v>782220</v>
       </c>
       <c r="AE26">
-        <v>414105</v>
+        <v>782220</v>
       </c>
       <c r="AF26" t="s">
-        <v>138</v>
+        <v>588</v>
       </c>
       <c r="AG26" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="AH26" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -25588,10 +25683,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>51558</v>
+        <v>50846</v>
       </c>
       <c r="B63" t="s">
-        <v>581</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>30024</v>
@@ -25600,88 +25695,88 @@
         <v>32</v>
       </c>
       <c r="E63" s="1">
-        <v>29980</v>
+        <v>32442</v>
       </c>
       <c r="F63">
-        <v>1703298012</v>
+        <v>38367140869</v>
       </c>
       <c r="G63" t="s">
-        <v>582</v>
+        <v>278</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="K63" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="L63" t="s">
         <v>53</v>
       </c>
       <c r="M63">
-        <v>13322374</v>
+        <v>13349760</v>
       </c>
       <c r="N63">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O63" t="s">
         <v>38</v>
       </c>
       <c r="P63" t="s">
-        <v>583</v>
+        <v>280</v>
       </c>
       <c r="Q63" t="s">
-        <v>584</v>
+        <v>281</v>
       </c>
       <c r="R63" s="2">
-        <v>3543.92</v>
+        <v>3994.53</v>
       </c>
       <c r="S63">
         <v>3</v>
       </c>
       <c r="T63" s="1">
-        <v>40787</v>
+        <v>39142</v>
       </c>
       <c r="U63" t="s">
-        <v>585</v>
+        <v>282</v>
       </c>
       <c r="V63" t="s">
         <v>53</v>
       </c>
       <c r="W63" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y63" t="s">
-        <v>586</v>
+        <v>283</v>
       </c>
       <c r="Z63" t="s">
-        <v>587</v>
+        <v>284</v>
       </c>
       <c r="AA63" t="s">
         <v>60</v>
       </c>
       <c r="AB63">
-        <v>782220</v>
+        <v>414105</v>
       </c>
       <c r="AC63">
-        <v>782220</v>
+        <v>414105</v>
       </c>
       <c r="AD63">
-        <v>782220</v>
+        <v>414105</v>
       </c>
       <c r="AE63">
-        <v>782220</v>
+        <v>414105</v>
       </c>
       <c r="AF63" t="s">
-        <v>588</v>
+        <v>138</v>
       </c>
       <c r="AG63" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="AH63" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
@@ -102700,7 +102795,11 @@
       <c r="R839" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH836" xr:uid="{4AAFCCFC-2BE3-4E81-B08A-79D75992DAFA}"/>
+  <autoFilter ref="A1:AH836" xr:uid="{4AAFCCFC-2BE3-4E81-B08A-79D75992DAFA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:AH63">
+      <sortCondition ref="B1:B836"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
